--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3532899.870626023</v>
+        <v>3528804.229121257</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283177</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>224.7543248662169</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>46.46302582222975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>49.65007093651766</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>51.276592340819</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.8853867261936</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>64.73079089713251</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>120.3332554667399</v>
       </c>
       <c r="D7" t="n">
-        <v>91.68670806675516</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>55.3729236692439</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>184.4241132557148</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.62253010341743</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722587</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>59.44001103519371</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>9.146142788179411</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>157.1838954824118</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>135.3135037226523</v>
       </c>
     </row>
     <row r="26">
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>221.1801025849732</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.472633616858</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>130.1208074460236</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695511</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>211.1474991249071</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>45.89043756183938</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>112.7304175246777</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695513</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>38.2187527515867</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>59.96838802184892</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856536</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012152</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016444</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.598450347025</v>
+        <v>1802.273730074953</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.635933406614</v>
+        <v>1433.311213134542</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1075.045514527791</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>689.257261929547</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>278.2713571399394</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4360,22 +4360,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.530799662409</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.530799662409</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.598450347025</v>
+        <v>2188.873570139075</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014354</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686.1991671823603</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
         <v>51.2467865680031</v>
@@ -4488,52 +4488,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1586.294533269934</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1389.665785429795</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="T4" t="n">
-        <v>1389.665785429795</v>
+        <v>1584.651582356498</v>
       </c>
       <c r="U4" t="n">
-        <v>1389.665785429795</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.981297223908</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.981297223908</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9917463258904</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y4" t="n">
-        <v>686.1991671823603</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1330.099343395678</v>
+        <v>1321.266375419619</v>
       </c>
       <c r="C5" t="n">
-        <v>1330.099343395678</v>
+        <v>952.3038584792075</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>594.0381598724571</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>208.2499072742128</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926588</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W5" t="n">
-        <v>1768.949738926588</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X5" t="n">
-        <v>1395.483980665509</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1330.099343395678</v>
+        <v>1321.266375419619</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2362.930966067699</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1030.179356506101</v>
+        <v>172.7955294637</v>
       </c>
       <c r="C7" t="n">
-        <v>861.2431735781943</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234358</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W7" t="n">
-        <v>1439.817372234358</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X7" t="n">
-        <v>1211.827821336341</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y7" t="n">
-        <v>1211.827821336341</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1675.730933054506</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1306.768416114094</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D8" t="n">
-        <v>948.502717507344</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>599.3250994197315</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>592.379598670528</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y8" t="n">
-        <v>2062.330773118628</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4886,13 +4886,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>888.6771326738537</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>738.560493261518</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>590.6473996791249</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>443.7574521812145</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>276.5613528960944</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>134.8495217382925</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.05435957553</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1239.261780432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756265</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021781</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996071</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,34 +5503,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,7 +5542,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972543</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.67509321183</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597619</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="G19" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,37 +5764,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961522</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>779.6143379232836</v>
       </c>
     </row>
     <row r="26">
@@ -6205,49 +6205,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6305,7 +6305,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
         <v>577.3880777468471</v>
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,22 +6712,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6785,22 +6785,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>366.9636532421613</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6922,55 +6922,55 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168601</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014776</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123001</v>
@@ -6982,7 +6982,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7004,40 +7004,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263525</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232828</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578598</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.903366400058</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038347</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179775</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1983.782243341199</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1983.782243341199</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1729.097755135312</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135312</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237295</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093765</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7168,22 +7168,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075804</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355936</v>
@@ -7192,16 +7192,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856898</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>808.8888553856898</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>658.7722159733543</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>510.8591223909613</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>363.9691748930511</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578598</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235167</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258108</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602306</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.74706939642</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359459</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359459</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159293</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7432,31 +7432,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.580456911439</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835321</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711966</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888037</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908935</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057736</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2225.503448475988</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1936.428221820186</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820186</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783226</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>634.9279362553152</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>634.9279362553152</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578598</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854708</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648822</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611861</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.294644713844</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703141</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.7516311504066</v>
+        <v>319.4183821282434</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.9418658837474</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>40.64330621514811</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>68.52575990662532</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>83.27114962944248</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>30.95754073885476</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.11201973523683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>35.40333084624521</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>6.257951202381037</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>119.6337007304293</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>105.8542358274171</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856536</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>179.1866975757014</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119.8635921600882</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673825.2162894151</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894153</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244628</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
         <v>746610.6047132552</v>
@@ -26331,31 +26331,31 @@
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132557</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,28 +26377,28 @@
         <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355118</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>135522.1369769832</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309556</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744426</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744346</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744228</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744442</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744339</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.25639174438</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744337</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583748.0558682845</v>
+        <v>-583748.0558682855</v>
       </c>
       <c r="C6" t="n">
-        <v>531003.7277076346</v>
+        <v>531003.7277076348</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596354</v>
+        <v>370988.2649596357</v>
       </c>
       <c r="E6" t="n">
-        <v>311348.3566902486</v>
+        <v>311000.9774358916</v>
       </c>
       <c r="F6" t="n">
-        <v>636760.8184976041</v>
+        <v>636413.4392432468</v>
       </c>
       <c r="G6" t="n">
-        <v>636760.8184976039</v>
+        <v>636413.439243247</v>
       </c>
       <c r="H6" t="n">
-        <v>636760.8184976034</v>
+        <v>636413.4392432473</v>
       </c>
       <c r="I6" t="n">
-        <v>636760.8184976041</v>
+        <v>636413.4392432472</v>
       </c>
       <c r="J6" t="n">
-        <v>469155.6406876214</v>
+        <v>468808.2614332646</v>
       </c>
       <c r="K6" t="n">
-        <v>636760.8184976036</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="L6" t="n">
-        <v>588466.848489413</v>
+        <v>588119.4692350565</v>
       </c>
       <c r="M6" t="n">
-        <v>551705.7905620917</v>
+        <v>551358.4113077351</v>
       </c>
       <c r="N6" t="n">
-        <v>636760.818497604</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="O6" t="n">
-        <v>636760.818497604</v>
+        <v>636413.4392432469</v>
       </c>
       <c r="P6" t="n">
-        <v>636760.8184976042</v>
+        <v>636413.4392432469</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,22 +26971,22 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>186.793377906737</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.7749128338238</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.90750148305597</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>143.3858680209185</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>262.9906590155178</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>321.5071477589211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>46.91356563188793</v>
       </c>
       <c r="D7" t="n">
-        <v>56.9287649514572</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>326.5574464030179</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>226.4976123977387</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>24.68204843992098</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>128.4296311708957</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.126388037344441e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30462,10 +30462,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,19 +30510,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>399.4395445221161</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>134.7284881171904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>744.5154887882973</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>428.7353800421389</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,13 +33049,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>242.2322097768135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175643</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882567</v>
+        <v>617.0987427660937</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35035,7 +35035,7 @@
         <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.4225882146019</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>265.4651371077858</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>0.7540807028601763</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>602.381454866279</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>297.3936679588056</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>103.6778299969394</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902916</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295353</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_13_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3528804.229121257</v>
+        <v>3530564.759424043</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7839760.514778417</v>
+        <v>7839760.514778415</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>224.7543248662169</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.96124341869934</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>36.44611216101828</v>
       </c>
       <c r="S4" t="n">
-        <v>51.276592340819</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.8853867261936</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>137.009340984484</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>120.3332554667399</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>138.775279373269</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>184.4241132557148</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="I10" t="n">
-        <v>71.67037196991711</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833906</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.62253010341743</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>59.44001103519371</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.3135037226523</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>209.9229247978751</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>221.1801025849732</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>112.7304175246777</v>
+        <v>104.4262124629291</v>
       </c>
     </row>
     <row r="41">
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>101.6969570046971</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1802.273730074953</v>
+        <v>531.4162778577434</v>
       </c>
       <c r="C2" t="n">
-        <v>1433.311213134542</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="D2" t="n">
-        <v>1075.045514527791</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="E2" t="n">
-        <v>689.257261929547</v>
+        <v>162.4537609173316</v>
       </c>
       <c r="F2" t="n">
-        <v>278.2713571399394</v>
+        <v>155.5082601681282</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>143.8439139328211</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2188.873570139075</v>
+        <v>918.0161179218651</v>
       </c>
       <c r="Y2" t="n">
-        <v>2188.873570139075</v>
+        <v>918.0161179218651</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694941</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425659</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4476,64 +4476,64 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1599.631865366398</v>
       </c>
       <c r="S4" t="n">
-        <v>1584.651582356498</v>
+        <v>1403.003117526259</v>
       </c>
       <c r="T4" t="n">
-        <v>1584.651582356498</v>
+        <v>1403.003117526259</v>
       </c>
       <c r="U4" t="n">
-        <v>1295.533244860336</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="V4" t="n">
-        <v>1295.533244860336</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.533244860336</v>
+        <v>1113.884780030097</v>
       </c>
       <c r="X4" t="n">
-        <v>1067.543693962319</v>
+        <v>885.8952291320793</v>
       </c>
       <c r="Y4" t="n">
-        <v>846.7511148187889</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1321.266375419619</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C5" t="n">
-        <v>952.3038584792075</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D5" t="n">
-        <v>594.0381598724571</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>208.2499072742128</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2299.246847204926</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656511</v>
+        <v>1946.478191934812</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395431</v>
+        <v>1573.012433673732</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.266375419619</v>
+        <v>1182.87310169792</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>172.7955294637</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>51.2467865680031</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>51.2467865680031</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354872</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>575.2365734374698</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>354.4439942939397</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>1712.341567565138</v>
       </c>
       <c r="C8" t="n">
-        <v>1343.379050624726</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>985.1133520179758</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>599.3250994197315</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>592.379598670528</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4804,10 +4804,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G10" t="n">
-        <v>138.9064315533118</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="H10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W10" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>738.560493261518</v>
+        <v>194.8007783998295</v>
       </c>
       <c r="E13" t="n">
-        <v>590.6473996791249</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>443.7574521812145</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>276.5613528960944</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>134.8495217382925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1460.05435957553</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5971,46 +5971,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>779.6143379232836</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>779.6143379232836</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,43 +6205,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6256,19 +6256,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2052.064890853473</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6457,58 +6457,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,10 +6925,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7168,40 +7168,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7362,19 +7362,19 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>1394.184733704551</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y40" t="n">
         <v>1280.315625093766</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7414,7 +7414,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>363.7369613277355</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>196.5408620426154</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>319.4183821282434</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>211.0329012241559</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>46.45968844823011</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>40.64330621514811</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>83.27114962944248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>7.482525529413124</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>30.95754073885476</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.8542358274171</v>
+        <v>114.1584408891657</v>
       </c>
     </row>
     <row r="41">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>673825.2162894154</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894151</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673825.2162894153</v>
+        <v>673825.2162894154</v>
       </c>
     </row>
     <row r="16">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132554</v>
+      </c>
+      <c r="G2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132553</v>
-      </c>
-      <c r="G2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="H2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26352,7 +26352,7 @@
         <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403375</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099824</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.339677442988552e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551184</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.339677442988552e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26420,16 +26420,16 @@
         <v>135522.1369769831</v>
       </c>
       <c r="C4" t="n">
-        <v>135522.1369769832</v>
+        <v>135522.136976983</v>
       </c>
       <c r="D4" t="n">
         <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="F4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
@@ -26444,7 +26444,7 @@
         <v>8727.256391744282</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744368</v>
       </c>
       <c r="L4" t="n">
         <v>8727.256391744282</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-583748.0558682855</v>
+        <v>-583748.0558682849</v>
       </c>
       <c r="C6" t="n">
-        <v>531003.7277076348</v>
+        <v>531003.7277076344</v>
       </c>
       <c r="D6" t="n">
-        <v>370988.2649596357</v>
+        <v>370988.264959636</v>
       </c>
       <c r="E6" t="n">
-        <v>311000.9774358916</v>
+        <v>311313.6187648126</v>
       </c>
       <c r="F6" t="n">
-        <v>636413.4392432468</v>
+        <v>636726.0805721688</v>
       </c>
       <c r="G6" t="n">
-        <v>636413.439243247</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="H6" t="n">
-        <v>636413.4392432473</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="I6" t="n">
-        <v>636413.4392432472</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="J6" t="n">
-        <v>468808.2614332646</v>
+        <v>469120.9027621859</v>
       </c>
       <c r="K6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721681</v>
       </c>
       <c r="L6" t="n">
-        <v>588119.4692350565</v>
+        <v>588432.1105639779</v>
       </c>
       <c r="M6" t="n">
-        <v>551358.4113077351</v>
+        <v>551671.0526366564</v>
       </c>
       <c r="N6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
       <c r="O6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721685</v>
       </c>
       <c r="P6" t="n">
-        <v>636413.4392432469</v>
+        <v>636726.0805721682</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175393</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757587</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973557</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973557</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>186.793377906737</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>275.057309143706</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>65.11146025855535</v>
       </c>
       <c r="S4" t="n">
-        <v>143.3858680209185</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>262.9906590155178</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>190.7429174856509</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,22 +27776,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>46.91356563188793</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,13 +27830,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>226.4976123977386</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>226.4976123977387</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>73.08464294440412</v>
       </c>
       <c r="I10" t="n">
-        <v>24.68204843992098</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -29523,7 +29523,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>6.674596803735689e-14</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>444.2274915982885</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33675,13 +33675,13 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34146,7 +34146,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>617.0987427660937</v>
+        <v>508.7132618620064</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>397.6203974676407</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>302.0934576762701</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37794,7 +37794,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
